--- a/AMAP/temp graph.xlsx
+++ b/AMAP/temp graph.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\User-save-space\Thursday\AMAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adpow/Documents/AdvPhysicsLab/AMAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -137,6 +140,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cortex Resistance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Temperature </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -217,8 +250,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.3541458002681175E-2"/>
-                  <c:y val="3.1655710146750962E-2"/>
+                  <c:x val="-0.0151038784062211"/>
+                  <c:y val="-0.214025412386366"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -253,39 +286,39 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$6:$A$9</c:f>
+              <c:f>Sheet1!$B$7:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7992999999999999</c:v>
+                  <c:v>1.7993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0005999999999999</c:v>
+                  <c:v>2.0006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2004999999999999</c:v>
+                  <c:v>2.2005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4001999999999999</c:v>
+                  <c:v>2.4002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$9</c:f>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15535</c:v>
+                  <c:v>15535.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12508</c:v>
+                  <c:v>12508.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10421</c:v>
+                  <c:v>10421.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8897.4</c:v>
@@ -303,14 +336,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256139040"/>
-        <c:axId val="256137864"/>
+        <c:axId val="-2145280336"/>
+        <c:axId val="-2146584544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256139040"/>
+        <c:axId val="-2145280336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
+          <c:min val="1.7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -365,15 +398,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256137864"/>
+        <c:crossAx val="-2146584544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256137864"/>
+        <c:axId val="-2146584544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="8000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -428,7 +461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256139040"/>
+        <c:crossAx val="-2145280336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1037,16 +1070,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168274</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1114,9 +1147,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1149,9 +1182,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1331,234 +1364,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>1.1989000000000001</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>41951</v>
       </c>
-      <c r="D2">
-        <f xml:space="preserve"> (SQRT(925670*B2 -7515718185)+249305)/92567</f>
+      <c r="E3">
+        <f xml:space="preserve"> (SQRT(925670*C3 -7515718185)+249305)/92567</f>
         <v>4.6050026384282035</v>
       </c>
-      <c r="E2">
-        <f xml:space="preserve"> (249305-SQRT(925670*B2-7515718185))/92567</f>
+      <c r="F3">
+        <f xml:space="preserve"> (249305-SQRT(925670*C3-7515718185))/92567</f>
         <v>0.78147418376545075</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>1.2992999999999999</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>33731</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D14" si="0" xml:space="preserve"> (SQRT(925670*B3 -7515718185)+249305)/92567</f>
+      <c r="E4">
+        <f t="shared" ref="E4:E15" si="0" xml:space="preserve"> (SQRT(925670*C4 -7515718185)+249305)/92567</f>
         <v>4.3566196110023148</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1" xml:space="preserve"> (249305-SQRT(925670*B3-7515718185))/92567</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F9" si="1" xml:space="preserve"> (249305-SQRT(925670*C4-7515718185))/92567</f>
         <v>1.0298572111913402</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>1.399</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>27850</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>4.1532087576296002</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>1.2332680645640539</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>1.5992999999999999</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>20149</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>3.8332276501277467</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>1.5532491720659072</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>1.7992999999999999</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>15535</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>3.5882946627310184</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>1.7981821594626357</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>2.0005999999999999</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>12508</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>3.3818016318868684</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>2.0046751903067861</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>2.2004999999999999</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>10421</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>3.1918976056836961</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>2.194579216509958</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>2.4001999999999999</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>8897.4</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>2.9831809890035594</v>
       </c>
-      <c r="E9">
-        <f xml:space="preserve"> (249305-SQRT(925670*B9-7515718185))/92567</f>
+      <c r="F10">
+        <f t="shared" ref="F10:F15" si="2" xml:space="preserve"> (249305-SQRT(925670*C10-7515718185))/92567</f>
         <v>2.4032958331900955</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C11">
         <v>9800</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>3.1193539466333964</v>
       </c>
-      <c r="E10">
-        <f xml:space="preserve"> (249305-SQRT(925670*B10-7515718185))/92567</f>
+      <c r="F11">
+        <f t="shared" si="2"/>
         <v>2.2671228755602582</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C12">
         <v>10200</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>3.1673548455376492</v>
       </c>
-      <c r="E11">
-        <f xml:space="preserve"> (249305-SQRT(925670*B11-7515718185))/92567</f>
+      <c r="F12">
+        <f t="shared" si="2"/>
         <v>2.2191219766560053</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C13">
         <v>10900</v>
       </c>
-      <c r="D12">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>3.2413326502784532</v>
       </c>
-      <c r="E12">
-        <f xml:space="preserve"> (249305-SQRT(925670*B12-7515718185))/92567</f>
+      <c r="F13">
+        <f t="shared" si="2"/>
         <v>2.1451441719152013</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14">
         <v>10600</v>
       </c>
-      <c r="D13">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>3.2109239693154619</v>
       </c>
-      <c r="E13">
-        <f xml:space="preserve"> (249305-SQRT(925670*B13-7515718185))/92567</f>
+      <c r="F14">
+        <f t="shared" si="2"/>
         <v>2.1755528528781922</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C15">
         <v>12500</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>3.3811737788088894</v>
       </c>
-      <c r="E14">
-        <f xml:space="preserve"> (249305-SQRT(925670*B14-7515718185))/92567</f>
+      <c r="F15">
+        <f t="shared" si="2"/>
         <v>2.0053030433847652</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>